--- a/lvl/template.xlsx
+++ b/lvl/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aswin\Documents\Repository\word-jam\lvl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FB62D-A9F5-4A02-A6E1-3B09D87CBEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731EEC0-256B-4E55-A8F1-6D7E9B5CFD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3936" yWindow="1404" windowWidth="17688" windowHeight="10764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +347,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N20"/>
+      <selection activeCell="B4" sqref="B4:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
